--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -658,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B81" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2310,337 +2310,87 @@
       <c r="A73" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="2">
-        <v>0</v>
-      </c>
+      <c r="B73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="2">
-        <v>2</v>
-      </c>
+      <c r="B75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="2">
-        <v>3</v>
-      </c>
+      <c r="B76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="2">
-        <v>4</v>
-      </c>
+      <c r="B77" s="2"/>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="2">
-        <v>5</v>
-      </c>
+      <c r="B78" s="2"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="2">
-        <v>6</v>
-      </c>
+      <c r="B79" s="2"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="2">
-        <v>7</v>
-      </c>
+      <c r="B80" s="2"/>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="2">
-        <v>8</v>
-      </c>
+      <c r="B81" s="2"/>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="2">
-        <v>9</v>
-      </c>
+      <c r="B82" s="2"/>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="2">
-        <v>10</v>
-      </c>
+      <c r="B83" s="2"/>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="2">
-        <v>11</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="2">
-        <v>12</v>
-      </c>
+      <c r="B85" s="2"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="2">
-        <v>13</v>
-      </c>
+      <c r="B86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="2">
-        <v>14</v>
-      </c>
+      <c r="B87" s="2"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="2">
-        <v>15</v>
-      </c>
+      <c r="B88" s="2"/>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="2">
-        <v>16</v>
-      </c>
+      <c r="B89" s="2"/>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="2">
-        <v>17</v>
-      </c>
+      <c r="B90" s="2"/>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="2">
-        <v>18</v>
-      </c>
+      <c r="B91" s="2"/>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="2">
-        <v>19</v>
-      </c>
+      <c r="B92" s="2"/>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="2">
-        <v>20</v>
-      </c>
+      <c r="B93" s="2"/>
       <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B75:B1048576 E73 B1:B73">
